--- a/data/s0/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/s0/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\Kanaleneiland\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s0\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753ACC5F-EF26-4033-AF30-0ACBB3F95500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAEE513-97B3-4FC8-81A2-8AC298B107B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>price_sigma</t>
+  </si>
+  <si>
+    <t>CS_electric</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -232,11 +235,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +569,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,11 +1327,84 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="6"/>
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>9999</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.41949999999999998</v>
+      </c>
+      <c r="T10">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>60</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">

--- a/data/s0/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
+++ b/data/s0/Kanaleneiland/archetypes/pop_archetypes_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s0\Kanaleneiland\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAEE513-97B3-4FC8-81A2-8AC298B107B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE30FC29-1F4B-4FE7-BCE6-B056244DDEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4728" yWindow="2376" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,8 +859,8 @@
       <c r="J4">
         <v>0.1</v>
       </c>
-      <c r="K4" s="2">
-        <v>9.7000000000000003E-2</v>
+      <c r="K4" s="6">
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -941,7 +941,7 @@
       <c r="J5">
         <v>0.1</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="6">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="L5" s="2">
